--- a/Input/2122 2nd/Exam Timetable.xlsx
+++ b/Input/2122 2nd/Exam Timetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Projects\TSTSS_Exam_Timetable\Input\2122 2nd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Code Projects\TSTSS_Exam_Timetable\Input\2122 2nd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332BA676-0AE1-4DB9-B0A0-70EE3AAF3E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE856E8-44C1-4947-92BD-80107AC0D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="238">
   <si>
     <t>科    目</t>
   </si>
@@ -449,9 +449,6 @@
 ( Speaking )</t>
   </si>
   <si>
-    <t>HALL, 303[p], 304, 305, 306, 308, 501[p], 502, 503, 504, 507</t>
-  </si>
-  <si>
     <t>11:00a.m.-11:45a.m.
 11:15a.m.-12:10p.m.</t>
   </si>
@@ -593,13 +590,323 @@
   <si>
     <t>English II (KYF)
 ( Writing )</t>
+  </si>
+  <si>
+    <t>English II (CMW)
+( Writing )</t>
+  </si>
+  <si>
+    <t>中文III (CWYU)
+( 聆聽及綜合 )</t>
+  </si>
+  <si>
+    <t>通識 I (TSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">數學 I (OCW) </t>
+  </si>
+  <si>
+    <t>English I (SYF)
+( Reading )</t>
+  </si>
+  <si>
+    <t>地理  (LKY)</t>
+  </si>
+  <si>
+    <t>生物 (FCH)</t>
+  </si>
+  <si>
+    <t>中文I (NIF)
+( 閱讀 )</t>
+  </si>
+  <si>
+    <t>數延 II (HLY)</t>
+  </si>
+  <si>
+    <t>Rm 101 (5ABCDE)</t>
+  </si>
+  <si>
+    <t>8:30a.m.-11:00a.m.</t>
+  </si>
+  <si>
+    <t>603, 604, 605, 606, 607</t>
+  </si>
+  <si>
+    <t>Rm 603 (5A)</t>
+  </si>
+  <si>
+    <t>Art Room (5ABCDE)</t>
+  </si>
+  <si>
+    <t>Rm 108 (5ABCE)</t>
+  </si>
+  <si>
+    <t>8:30a.m.-10:10a.m.</t>
+  </si>
+  <si>
+    <t>English III (NWYI)
+( Listening )</t>
+  </si>
+  <si>
+    <t>通識 II (CTC)</t>
+  </si>
+  <si>
+    <t>數學 II (HWL)</t>
+  </si>
+  <si>
+    <t>English IV (CKK)
+( Speaking )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旅款 I (YTHO) </t>
+  </si>
+  <si>
+    <t>中國歷史 (LWF)</t>
+  </si>
+  <si>
+    <t>Hall: 60 / Oral: 70</t>
+  </si>
+  <si>
+    <t>HALL: 
+10:30a.m.-11:30a.m.
+Oral: 
+10:45a.m.-11:55a.m.</t>
+  </si>
+  <si>
+    <t>10:45a.m.-12:45p.m.</t>
+  </si>
+  <si>
+    <t>11:00a.m.-12:15p.m.</t>
+  </si>
+  <si>
+    <t>Rm 604 (5B)</t>
+  </si>
+  <si>
+    <t>Rm 603 (5ABCDE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICT (FWC) </t>
+  </si>
+  <si>
+    <t>Rm 605 (5C)</t>
+  </si>
+  <si>
+    <t>Rm 606 (5ABCDE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAFS (SWY) </t>
+  </si>
+  <si>
+    <t>Rm 607 (5E)</t>
+  </si>
+  <si>
+    <t>Rm 605 (5ABCDE)</t>
+  </si>
+  <si>
+    <t>物理 (SPM)</t>
+  </si>
+  <si>
+    <t>Rm 604 (5ABCDE)</t>
+  </si>
+  <si>
+    <t>旅款 II (YTHO)</t>
+  </si>
+  <si>
+    <t>經濟 II (CLC)</t>
+  </si>
+  <si>
+    <t>10:00a.m.-12:00p.m.</t>
+  </si>
+  <si>
+    <t>8:30am – 10:30am</t>
+  </si>
+  <si>
+    <t>中文III (KSM)
+( 聆聽及綜合 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中文II (TSY)
+( 寫作 )  </t>
+  </si>
+  <si>
+    <t>English II (CHCH)
+( Writing )</t>
+  </si>
+  <si>
+    <t>中國歷史 I (LWF)</t>
+  </si>
+  <si>
+    <t>通識 I (NSW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">數學 I (NHH) </t>
+  </si>
+  <si>
+    <t>中文I (LCHO)
+( 閱讀 )</t>
+  </si>
+  <si>
+    <t>視覺藝術 (LCTA)</t>
+  </si>
+  <si>
+    <t>生物 I (FCH)</t>
+  </si>
+  <si>
+    <t>數延 II (HWL)</t>
+  </si>
+  <si>
+    <t>303, 304, 305, 306, 308</t>
+  </si>
+  <si>
+    <t>Rm 303 (6A)</t>
+  </si>
+  <si>
+    <t>Art Room (6ABCDE))</t>
+  </si>
+  <si>
+    <t>Rm 303 (6D)</t>
+  </si>
+  <si>
+    <t>Rm 101 (6ABCDE)</t>
+  </si>
+  <si>
+    <t>8:30a.m.-12:30p.m.</t>
+  </si>
+  <si>
+    <t>English III (CKK)
+( Listening )</t>
+  </si>
+  <si>
+    <t>10:45a.m.-1:00p.m.</t>
+  </si>
+  <si>
+    <t>English I (LHY)
+( Reading )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICT I (OCW) </t>
+  </si>
+  <si>
+    <t>Rm 304 (6B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAFS I (SWY) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rm 305 (6C)</t>
+  </si>
+  <si>
+    <t>物理 I (SPM)</t>
+  </si>
+  <si>
+    <t>Rm 308 (6E)</t>
+  </si>
+  <si>
+    <t>中國歷史 II (LWF)</t>
+  </si>
+  <si>
+    <t>11:15a.m.-12:35p.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICT II (OCW) </t>
+  </si>
+  <si>
+    <t>11:00a.m.-12:30p.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAFS II (SWY) </t>
+  </si>
+  <si>
+    <t>Rm 305 (6C)</t>
+  </si>
+  <si>
+    <t>10:15a.m.-12:30p.m.</t>
+  </si>
+  <si>
+    <t>11:30a.m.-12:30p.m.</t>
+  </si>
+  <si>
+    <t>物理 II (SPM)</t>
+  </si>
+  <si>
+    <t>通識 II (WCS)</t>
+  </si>
+  <si>
+    <t>數學 II (LKC)</t>
+  </si>
+  <si>
+    <t>English IV (NWYI)
+( Speaking )</t>
+  </si>
+  <si>
+    <t>HALL&lt;2&gt;, 303[p], 304, 304, 305, 306, 308, 601[p], 602, 603, 604, 606</t>
+  </si>
+  <si>
+    <t>HALL: 
+11:00a.m.-12:00p.m.
+Oral: 
+11:15a.m.-12:25p.m.</t>
+  </si>
+  <si>
+    <t>HAL&lt;2&gt;L, 603[p], 604, 605, 606, 607, 501[p], 502, 503, 504, 507</t>
+  </si>
+  <si>
+    <t>地理 I (LKY)</t>
+  </si>
+  <si>
+    <t>Rm 303 (6ABCDE)</t>
+  </si>
+  <si>
+    <t>生物 II (FCH)</t>
+  </si>
+  <si>
+    <t>Rm 303 (6D), Rm 304 (6ABCE)</t>
+  </si>
+  <si>
+    <t>Rm 304 (6ABCDE)</t>
+  </si>
+  <si>
+    <t>Rm 308 (6ABCDE)</t>
+  </si>
+  <si>
+    <t>化學 II (MHS)</t>
+  </si>
+  <si>
+    <t>10:00a.m.-12:30p.m.</t>
+  </si>
+  <si>
+    <t>Rm 305 (6ABCDE)</t>
+  </si>
+  <si>
+    <t>經濟 II (NKY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旅款 II (YTHO) </t>
+  </si>
+  <si>
+    <t>11:30a.m.-12:45p.m.</t>
+  </si>
+  <si>
+    <t>地理 II (LKY)</t>
+  </si>
+  <si>
+    <t>化學 I (MHS)</t>
+  </si>
+  <si>
+    <t>經濟 I (NYK)</t>
+  </si>
+  <si>
+    <t>上課</t>
+  </si>
+  <si>
+    <t>HALL&lt;2&gt;, 303[p], 304, 305, 306, 501[p], 502, 503, 504</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,7 +1004,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -720,12 +1027,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -776,6 +1120,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1059,18 +1412,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="11" width="16.625" customWidth="1"/>
+    <col min="2" max="11" width="16.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1438,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>14</v>
@@ -1118,14 +1471,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.5">
+    <row r="3" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="F3" s="5" t="s">
         <v>24</v>
       </c>
@@ -1145,14 +1506,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="6">
         <v>60</v>
       </c>
@@ -1172,14 +1533,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="6" t="s">
         <v>30</v>
       </c>
@@ -1199,14 +1560,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.5">
+    <row r="6" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
@@ -1226,14 +1587,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5">
+    <row r="7" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1253,14 +1622,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="6">
         <v>70</v>
       </c>
@@ -1277,17 +1646,17 @@
         <v>30</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
@@ -1307,14 +1676,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="85.5">
+    <row r="10" spans="1:11" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="7" t="s">
         <v>45</v>
       </c>
@@ -1331,10 +1700,10 @@
         <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1347,7 +1716,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1731,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="11" t="str">
         <f t="shared" ref="B13:K13" si="0">B2</f>
@@ -1405,14 +1774,22 @@
         <v>25/02/2022 (五)</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="42.75">
+    <row r="14" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="F14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1432,14 +1809,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5">
+    <row r="15" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="6">
         <v>70</v>
       </c>
@@ -1459,14 +1836,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.5">
+    <row r="16" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="6" t="s">
         <v>54</v>
       </c>
@@ -1486,14 +1863,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="57">
+    <row r="17" spans="1:11" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1501,7 +1878,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>33</v>
@@ -1513,14 +1890,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.5">
+    <row r="18" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="B18" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="F18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1540,14 +1925,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="6">
         <v>75</v>
       </c>
@@ -1558,7 +1943,7 @@
         <v>30</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J19" s="6">
         <v>75</v>
@@ -1567,14 +1952,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="57">
+    <row r="20" spans="1:11" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="6" t="s">
         <v>54</v>
       </c>
@@ -1594,14 +1979,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="85.5">
+    <row r="21" spans="1:11" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="7" t="s">
         <v>61</v>
       </c>
@@ -1612,7 +1997,7 @@
         <v>49</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -1621,7 +2006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1634,7 +2019,7 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>5</v>
       </c>
@@ -1649,7 +2034,7 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="11" t="str">
         <f t="shared" ref="B24:K24" si="1">B2</f>
@@ -1692,12 +2077,16 @@
         <v>25/02/2022 (五)</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17.25" customHeight="1">
+    <row r="25" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="B25" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>71</v>
       </c>
@@ -1723,12 +2112,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5">
+    <row r="26" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="6">
         <v>60</v>
       </c>
@@ -1754,12 +2143,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5">
+    <row r="27" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="6" t="s">
         <v>69</v>
       </c>
@@ -1785,12 +2174,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17.25" customHeight="1">
+    <row r="28" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1816,12 +2205,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>74</v>
       </c>
@@ -1847,12 +2240,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5">
+    <row r="30" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="6">
         <v>60</v>
       </c>
@@ -1878,12 +2271,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.5">
+    <row r="31" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="6" t="s">
         <v>69</v>
       </c>
@@ -1909,12 +2302,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.5">
+    <row r="32" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="7" t="s">
         <v>83</v>
       </c>
@@ -1940,12 +2333,16 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="28.5">
+    <row r="33" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -1959,31 +2356,31 @@
       </c>
       <c r="K33" s="17"/>
     </row>
-    <row r="34" spans="1:11" ht="28.5">
+    <row r="34" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="1:11" ht="57">
+    <row r="35" spans="1:11" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
@@ -1997,26 +2394,26 @@
       </c>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:11" ht="85.5">
+    <row r="36" spans="1:11" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -2029,7 +2426,7 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2441,7 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="11" t="str">
         <f t="shared" ref="B39:K39" si="2">B2</f>
@@ -2087,33 +2484,33 @@
         <v>25/02/2022 (五)</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.5">
+    <row r="40" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>65</v>
@@ -2122,7 +2519,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16.5">
+    <row r="41" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -2157,7 +2554,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="42.75">
+    <row r="42" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -2174,25 +2571,25 @@
         <v>95</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>95</v>
       </c>
       <c r="I42" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="K42" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="28.5">
+    </row>
+    <row r="43" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -2203,31 +2600,31 @@
         <v>70</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="28.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
@@ -2241,24 +2638,24 @@
         <v>99</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H44" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5">
+    <row r="45" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -2269,7 +2666,7 @@
         <v>150</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" s="6">
         <v>90</v>
@@ -2289,7 +2686,7 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="1:11" ht="57">
+    <row r="46" spans="1:11" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2300,27 +2697,27 @@
         <v>96</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>95</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="57">
+    <row r="47" spans="1:11" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -2331,7 +2728,7 @@
         <v>98</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>97</v>
@@ -2343,22 +2740,22 @@
         <v>34</v>
       </c>
       <c r="H47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5">
+    <row r="48" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="5" t="s">
         <v>81</v>
       </c>
@@ -2370,14 +2767,14 @@
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
     </row>
-    <row r="49" spans="1:11" ht="16.5">
+    <row r="49" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="6">
         <v>90</v>
       </c>
@@ -2389,33 +2786,33 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5">
+    <row r="50" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
-    <row r="51" spans="1:11" ht="28.5">
+    <row r="51" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="7" t="s">
         <v>34</v>
       </c>
@@ -2427,32 +2824,32 @@
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5">
+    <row r="52" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5">
+    <row r="53" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="6">
         <v>90</v>
       </c>
@@ -2461,32 +2858,32 @@
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5">
+    <row r="54" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
-    <row r="55" spans="1:11" ht="28.5">
+    <row r="55" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="7" t="s">
         <v>34</v>
       </c>
@@ -2495,32 +2892,32 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
-    <row r="56" spans="1:11" ht="16.5">
+    <row r="56" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
     </row>
-    <row r="57" spans="1:11" ht="16.5">
+    <row r="57" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="6">
         <v>75</v>
       </c>
@@ -2529,41 +2926,41 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5">
+    <row r="58" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
     </row>
-    <row r="59" spans="1:11" ht="28.5">
+    <row r="59" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -2576,7 +2973,7 @@
       <c r="J60" s="15"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75">
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2988,7 @@
       <c r="J61" s="15"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75">
+    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="11" t="str">
         <f t="shared" ref="B62:K62" si="3">B2</f>
@@ -2634,198 +3031,1434 @@
         <v>25/02/2022 (五)</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16.5">
+    <row r="63" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5">
+      <c r="B63" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5">
+      <c r="B64" s="6">
+        <v>120</v>
+      </c>
+      <c r="C64" s="6">
+        <v>100</v>
+      </c>
+      <c r="D64" s="6">
+        <v>120</v>
+      </c>
+      <c r="E64" s="6">
+        <v>135</v>
+      </c>
+      <c r="F64" s="6">
+        <v>90</v>
+      </c>
+      <c r="G64" s="6">
+        <v>120</v>
+      </c>
+      <c r="H64" s="6">
+        <v>180</v>
+      </c>
+      <c r="I64" s="6">
+        <v>120</v>
+      </c>
+      <c r="J64" s="6">
+        <v>90</v>
+      </c>
+      <c r="K64" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="1:11" ht="16.5">
+      <c r="B65" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75">
-      <c r="A68" s="16" t="s">
+      <c r="B66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="6">
+        <v>120</v>
+      </c>
+      <c r="D68" s="6">
+        <v>75</v>
+      </c>
+      <c r="E68" s="6">
+        <v>75</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="6">
+        <v>90</v>
+      </c>
+      <c r="H68" s="6">
+        <v>80</v>
+      </c>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+    </row>
+    <row r="69" spans="1:11" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+    </row>
+    <row r="70" spans="1:11" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="6">
+        <v>60</v>
+      </c>
+      <c r="H72" s="6">
+        <v>120</v>
+      </c>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="6">
+        <v>150</v>
+      </c>
+      <c r="H76" s="6">
+        <v>135</v>
+      </c>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="6">
+        <v>75</v>
+      </c>
+      <c r="H80" s="6">
+        <v>120</v>
+      </c>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+    </row>
+    <row r="82" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="6">
+        <v>120</v>
+      </c>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+    </row>
+    <row r="86" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+    </row>
+    <row r="88" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A88" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-    </row>
-    <row r="69" spans="1:11" ht="15.75">
-      <c r="A69" s="2"/>
-      <c r="B69" s="11" t="str">
-        <f t="shared" ref="B69:K69" si="4">B2</f>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+    </row>
+    <row r="89" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
+      <c r="B89" s="11" t="str">
+        <f t="shared" ref="B89:K89" si="4">B2</f>
         <v>14/02/2022 (一)</v>
       </c>
-      <c r="C69" s="11" t="str">
+      <c r="C89" s="11" t="str">
         <f t="shared" si="4"/>
         <v>15/02/2022 (二)</v>
       </c>
-      <c r="D69" s="11" t="str">
+      <c r="D89" s="11" t="str">
         <f t="shared" si="4"/>
         <v>16/02/2022(三)</v>
       </c>
-      <c r="E69" s="11" t="str">
+      <c r="E89" s="11" t="str">
         <f t="shared" si="4"/>
         <v>17/02/2022(四)</v>
       </c>
-      <c r="F69" s="11" t="str">
+      <c r="F89" s="11" t="str">
         <f t="shared" si="4"/>
         <v>18/02/2022 (五)</v>
       </c>
-      <c r="G69" s="11" t="str">
+      <c r="G89" s="11" t="str">
         <f t="shared" si="4"/>
         <v>21/02/2022 (一)</v>
       </c>
-      <c r="H69" s="11" t="str">
+      <c r="H89" s="11" t="str">
         <f t="shared" si="4"/>
         <v>22/02/2022 (二)</v>
       </c>
-      <c r="I69" s="11" t="str">
+      <c r="I89" s="11" t="str">
         <f t="shared" si="4"/>
         <v>23/02/2022 (三)</v>
       </c>
-      <c r="J69" s="11" t="str">
+      <c r="J89" s="11" t="str">
         <f t="shared" si="4"/>
         <v>24/02/2022 (四)</v>
       </c>
-      <c r="K69" s="11" t="str">
+      <c r="K89" s="11" t="str">
         <f t="shared" si="4"/>
         <v>25/02/2022 (五)</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16.5">
-      <c r="A70" s="3" t="s">
+    <row r="90" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="1:11" ht="16.5">
-      <c r="A71" s="4" t="s">
+      <c r="B90" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="1:11" ht="16.5">
-      <c r="A72" s="4" t="s">
+      <c r="B91" s="6">
+        <v>100</v>
+      </c>
+      <c r="C91" s="6">
+        <v>90</v>
+      </c>
+      <c r="D91" s="6">
+        <v>120</v>
+      </c>
+      <c r="E91" s="6">
+        <v>135</v>
+      </c>
+      <c r="F91" s="6">
+        <v>120</v>
+      </c>
+      <c r="G91" s="6">
+        <v>135</v>
+      </c>
+      <c r="H91" s="6">
+        <v>90</v>
+      </c>
+      <c r="I91" s="6">
+        <v>240</v>
+      </c>
+      <c r="J91" s="6">
+        <v>150</v>
+      </c>
+      <c r="K91" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="1:11" ht="16.5">
-      <c r="A73" s="1" t="s">
+      <c r="B92" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="B93" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="6">
+        <v>135</v>
+      </c>
+      <c r="C95" s="6">
+        <v>90</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="6">
+        <v>120</v>
+      </c>
+      <c r="F95" s="6">
+        <v>75</v>
+      </c>
+      <c r="G95" s="6">
+        <v>75</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I95" s="6">
+        <v>150</v>
+      </c>
+      <c r="J95" s="6">
+        <v>60</v>
+      </c>
+      <c r="K95" s="17"/>
+    </row>
+    <row r="96" spans="1:11" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K96" s="17"/>
+    </row>
+    <row r="97" spans="1:11" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K97" s="17"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="6">
+        <v>75</v>
+      </c>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="6">
+        <v>90</v>
+      </c>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+    </row>
+    <row r="101" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="6">
+        <v>150</v>
+      </c>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="6">
+        <v>60</v>
+      </c>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+    </row>
+    <row r="105" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="6">
+        <v>80</v>
+      </c>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="6">
+        <v>150</v>
+      </c>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+    </row>
+    <row r="109" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="6">
+        <v>90</v>
+      </c>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="6">
+        <v>75</v>
+      </c>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+    </row>
+    <row r="113" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="6">
+        <v>135</v>
+      </c>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="6">
+        <v>75</v>
+      </c>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+    </row>
+    <row r="117" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="6">
+        <v>60</v>
+      </c>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="6">
+        <v>150</v>
+      </c>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+    </row>
+    <row r="121" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="6">
+        <v>60</v>
+      </c>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.45" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+    </row>
+    <row r="125" spans="1:11" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
